--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_6_3.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_6_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,716 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_12</t>
+          <t>model_6_3_5</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9259375077876892</v>
+        <v>0.9519964935707784</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7451527743288276</v>
+        <v>0.678501808921586</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03030610082493845</v>
+        <v>0.773464701204162</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8287749018732303</v>
+        <v>0.8535334150392793</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7029350739762664</v>
+        <v>0.8484370821941872</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4952562264501415</v>
+        <v>0.3209996685280272</v>
       </c>
       <c r="H2" t="n">
-        <v>1.704164571526704</v>
+        <v>2.149859884104405</v>
       </c>
       <c r="I2" t="n">
-        <v>1.701895794388242</v>
+        <v>0.5428318170625221</v>
       </c>
       <c r="J2" t="n">
-        <v>1.23091089517268</v>
+        <v>0.7795182983341573</v>
       </c>
       <c r="K2" t="n">
-        <v>1.466403344780462</v>
+        <v>0.6611750576983397</v>
       </c>
       <c r="L2" t="n">
-        <v>1.158643577066537</v>
+        <v>0.6844444389990236</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7037444326246152</v>
+        <v>0.5665683264426518</v>
       </c>
       <c r="N2" t="n">
-        <v>1.043353653977938</v>
+        <v>1.028099613519544</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7337042900732509</v>
+        <v>0.590688313057435</v>
       </c>
       <c r="P2" t="n">
-        <v>131.40536004229</v>
+        <v>132.2726303769512</v>
       </c>
       <c r="Q2" t="n">
-        <v>210.6322886587231</v>
+        <v>211.4995589933843</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_11</t>
+          <t>model_6_3_4</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9287204025453539</v>
+        <v>0.9510291336160557</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7440932154118926</v>
+        <v>0.6783261400972223</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1181463769076102</v>
+        <v>0.7965575494547744</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8288177854425174</v>
+        <v>0.8657747835222448</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7185819318513483</v>
+        <v>0.8622467898867221</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4766469963915856</v>
+        <v>0.3274684089995417</v>
       </c>
       <c r="H3" t="n">
-        <v>1.711249846883069</v>
+        <v>2.151034582341805</v>
       </c>
       <c r="I3" t="n">
-        <v>1.547728591139692</v>
+        <v>0.4874959252890882</v>
       </c>
       <c r="J3" t="n">
-        <v>1.230602611788779</v>
+        <v>0.7143678018459532</v>
       </c>
       <c r="K3" t="n">
-        <v>1.389165668052878</v>
+        <v>0.6009318635675207</v>
       </c>
       <c r="L3" t="n">
-        <v>1.201141318474786</v>
+        <v>0.7354900967546025</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6903962604125152</v>
+        <v>0.5722485552620834</v>
       </c>
       <c r="N3" t="n">
-        <v>1.041724642412476</v>
+        <v>1.028665873005236</v>
       </c>
       <c r="O3" t="n">
-        <v>0.719787858535556</v>
+        <v>0.5966103609774045</v>
       </c>
       <c r="P3" t="n">
-        <v>131.4819582231183</v>
+        <v>132.2327273792592</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.7088868395513</v>
+        <v>211.4596559956922</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_10</t>
+          <t>model_6_3_6</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9314176491064847</v>
+        <v>0.9523822713506446</v>
       </c>
       <c r="C4" t="n">
-        <v>0.742660874277828</v>
+        <v>0.6782222223088684</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2082098827438833</v>
+        <v>0.7518583960055224</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8290632501125824</v>
+        <v>0.8418258116862847</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7347715445442695</v>
+        <v>0.8353612501260437</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4586104962176251</v>
+        <v>0.3184199707377191</v>
       </c>
       <c r="H4" t="n">
-        <v>1.720827918641883</v>
+        <v>2.151729481071025</v>
       </c>
       <c r="I4" t="n">
-        <v>1.389659429375333</v>
+        <v>0.5946056023106886</v>
       </c>
       <c r="J4" t="n">
-        <v>1.228838004029353</v>
+        <v>0.8418280124969139</v>
       </c>
       <c r="K4" t="n">
-        <v>1.309248787519822</v>
+        <v>0.7182168074038012</v>
       </c>
       <c r="L4" t="n">
-        <v>1.246851382428946</v>
+        <v>0.6383858303430824</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6772078678054657</v>
+        <v>0.5642871350099337</v>
       </c>
       <c r="N4" t="n">
-        <v>1.040145766376692</v>
+        <v>1.02787379238011</v>
       </c>
       <c r="O4" t="n">
-        <v>0.706038008751488</v>
+        <v>0.5883100065827087</v>
       </c>
       <c r="P4" t="n">
-        <v>131.5591080425963</v>
+        <v>132.2887682096253</v>
       </c>
       <c r="Q4" t="n">
-        <v>210.7860366590294</v>
+        <v>211.5156968260584</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_9</t>
+          <t>model_6_3_7</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9339362964836192</v>
+        <v>0.9523335992874863</v>
       </c>
       <c r="C5" t="n">
-        <v>0.740780587193238</v>
+        <v>0.677607869660853</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2991122746302123</v>
+        <v>0.7317499569135789</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8295985467298562</v>
+        <v>0.830697280011635</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7513213216803607</v>
+        <v>0.8230500295868767</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4417682896094227</v>
+        <v>0.3187454410481733</v>
       </c>
       <c r="H5" t="n">
-        <v>1.733401407034462</v>
+        <v>2.155837660057139</v>
       </c>
       <c r="I5" t="n">
-        <v>1.230117950788341</v>
+        <v>0.6427901483332852</v>
       </c>
       <c r="J5" t="n">
-        <v>1.224989838979019</v>
+        <v>0.901055815727986</v>
       </c>
       <c r="K5" t="n">
-        <v>1.227554025123684</v>
+        <v>0.7719230309851508</v>
       </c>
       <c r="L5" t="n">
-        <v>1.296037168938537</v>
+        <v>0.5968893679124657</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6646565200232543</v>
+        <v>0.5645754520417738</v>
       </c>
       <c r="N5" t="n">
-        <v>1.038671436204711</v>
+        <v>1.02790228334391</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6929523241093163</v>
+        <v>0.5886105978674929</v>
       </c>
       <c r="P5" t="n">
-        <v>131.6339395320296</v>
+        <v>132.2867249704115</v>
       </c>
       <c r="Q5" t="n">
-        <v>210.8608681484626</v>
+        <v>211.5136535868446</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_8</t>
+          <t>model_6_3_3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9361669848549111</v>
+        <v>0.9492936470703667</v>
       </c>
       <c r="C6" t="n">
-        <v>0.738372008007159</v>
+        <v>0.6775445594424319</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3892430098743465</v>
+        <v>0.8210704404453451</v>
       </c>
       <c r="E6" t="n">
-        <v>0.830536384312716</v>
+        <v>0.8784863596933715</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7680270718244165</v>
+        <v>0.876733347735788</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4268516661992181</v>
+        <v>0.3390736155217449</v>
       </c>
       <c r="H6" t="n">
-        <v>1.74950758714226</v>
+        <v>2.156261015779237</v>
       </c>
       <c r="I6" t="n">
-        <v>1.071930795658659</v>
+        <v>0.4287572773671181</v>
       </c>
       <c r="J6" t="n">
-        <v>1.218247868839864</v>
+        <v>0.6467147857759803</v>
       </c>
       <c r="K6" t="n">
-        <v>1.145089332249261</v>
+        <v>0.5377359917779687</v>
       </c>
       <c r="L6" t="n">
-        <v>1.349012650196879</v>
+        <v>0.792047627465799</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6533388601630995</v>
+        <v>0.5823002795137101</v>
       </c>
       <c r="N6" t="n">
-        <v>1.037365667402003</v>
+        <v>1.029681767568566</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6811528480381289</v>
+        <v>0.6070900079403605</v>
       </c>
       <c r="P6" t="n">
-        <v>131.7026374241126</v>
+        <v>132.16307608049</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.9295660405456</v>
+        <v>211.3900046969231</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_7</t>
+          <t>model_6_3_8</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9379869035709909</v>
+        <v>0.9519664606964893</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7353541819480595</v>
+        <v>0.6767548173755439</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4768281994540835</v>
+        <v>0.7131147393877326</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8320315099073735</v>
+        <v>0.8201773536568258</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7846860609679495</v>
+        <v>0.8115147013818854</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4146818613648369</v>
+        <v>0.3212004984966877</v>
       </c>
       <c r="H7" t="n">
-        <v>1.76968780389527</v>
+        <v>2.161542024616945</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9182112910569895</v>
+        <v>0.6874445092416361</v>
       </c>
       <c r="J7" t="n">
-        <v>1.207499640897528</v>
+        <v>0.9570445253227426</v>
       </c>
       <c r="K7" t="n">
-        <v>1.062855465977259</v>
+        <v>0.8222445172821894</v>
       </c>
       <c r="L7" t="n">
-        <v>1.406151475486467</v>
+        <v>0.5594519860266336</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6439579655263509</v>
+        <v>0.5667455324011719</v>
       </c>
       <c r="N7" t="n">
-        <v>1.036300349129176</v>
+        <v>1.02811719373864</v>
       </c>
       <c r="O7" t="n">
-        <v>0.671372589295565</v>
+        <v>0.5908730630404762</v>
       </c>
       <c r="P7" t="n">
-        <v>131.7604873037193</v>
+        <v>132.271379489857</v>
       </c>
       <c r="Q7" t="n">
-        <v>210.9874159201524</v>
+        <v>211.4983081062901</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_6</t>
+          <t>model_6_3_2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9392636892346887</v>
+        <v>0.946553500868486</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7316506475200484</v>
+        <v>0.6759697225185288</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5600396117320048</v>
+        <v>0.8468530932942733</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8342948041802781</v>
+        <v>0.8915816632303905</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8011268599195643</v>
+        <v>0.891802700548227</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4061439897526327</v>
+        <v>0.3573969857909339</v>
       </c>
       <c r="H8" t="n">
-        <v>1.794453355668588</v>
+        <v>2.166791957540834</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7721681399952194</v>
+        <v>0.3669759816084855</v>
       </c>
       <c r="J8" t="n">
-        <v>1.191229166475386</v>
+        <v>0.5770195120581979</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9816986532353028</v>
+        <v>0.4719977468333417</v>
       </c>
       <c r="L8" t="n">
-        <v>1.467897800892769</v>
+        <v>0.8547021917341779</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6372942724931966</v>
+        <v>0.5978268861392351</v>
       </c>
       <c r="N8" t="n">
-        <v>1.035552962399207</v>
+        <v>1.031285755589179</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6644252090542432</v>
+        <v>0.6232776143544407</v>
       </c>
       <c r="P8" t="n">
-        <v>131.8020950553847</v>
+        <v>132.057816220011</v>
       </c>
       <c r="Q8" t="n">
-        <v>211.0290236718177</v>
+        <v>211.284744836444</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_5</t>
+          <t>model_6_3_9</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9398631067606924</v>
+        <v>0.951371900393588</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7271979483452269</v>
+        <v>0.6757391340701221</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6371085405083097</v>
+        <v>0.6959062261479354</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8376296866552733</v>
+        <v>0.8102819731043144</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8172559782732398</v>
+        <v>0.8007521797761294</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4021356819961816</v>
+        <v>0.325176325979887</v>
       </c>
       <c r="H9" t="n">
-        <v>1.824228575553414</v>
+        <v>2.168333903557092</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6369055732471112</v>
+        <v>0.7286801513713971</v>
       </c>
       <c r="J9" t="n">
-        <v>1.167255209283943</v>
+        <v>1.00970930351588</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9020803912655269</v>
+        <v>0.8691947274436383</v>
       </c>
       <c r="L9" t="n">
-        <v>1.535801025231173</v>
+        <v>0.5256858883685694</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6341416892116316</v>
+        <v>0.5702423396941751</v>
       </c>
       <c r="N9" t="n">
-        <v>1.0352020838474</v>
+        <v>1.0284652290379</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6611384137756349</v>
+        <v>0.5945187366593315</v>
       </c>
       <c r="P9" t="n">
-        <v>131.8219314598117</v>
+        <v>132.2467754045965</v>
       </c>
       <c r="Q9" t="n">
-        <v>211.0488600762448</v>
+        <v>211.4737040210295</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_4</t>
+          <t>model_6_3_10</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9396570092762269</v>
+        <v>0.9506210544184396</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7219550822579351</v>
+        <v>0.6746204103569119</v>
       </c>
       <c r="D10" t="n">
-        <v>0.706459832937935</v>
+        <v>0.6800605003668228</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8424705066711542</v>
+        <v>0.8010154001881929</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8331096721413822</v>
+        <v>0.790747521129449</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4035138568237948</v>
+        <v>0.3301972364730327</v>
       </c>
       <c r="H10" t="n">
-        <v>1.859287645220312</v>
+        <v>2.175814814178577</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5151881188815861</v>
+        <v>0.7666502344628976</v>
       </c>
       <c r="J10" t="n">
-        <v>1.132455298731658</v>
+        <v>1.059027468153237</v>
       </c>
       <c r="K10" t="n">
-        <v>0.823821708806622</v>
+        <v>0.9128388513080674</v>
       </c>
       <c r="L10" t="n">
-        <v>1.609520484984066</v>
+        <v>0.4952279553866838</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6352274055988097</v>
+        <v>0.5746279113243914</v>
       </c>
       <c r="N10" t="n">
-        <v>1.035322726277331</v>
+        <v>1.028904748633108</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6622703513571579</v>
+        <v>0.5990910111532309</v>
       </c>
       <c r="P10" t="n">
-        <v>131.8150889005821</v>
+        <v>132.216130233566</v>
       </c>
       <c r="Q10" t="n">
-        <v>211.0420175170152</v>
+        <v>211.443058849999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_3</t>
+          <t>model_6_3_11</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.938530057350197</v>
+        <v>0.9497691020384093</v>
       </c>
       <c r="C11" t="n">
-        <v>0.715909523163178</v>
+        <v>0.6734450204978248</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7668292273906381</v>
+        <v>0.6655079382254193</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8494227211885393</v>
+        <v>0.792371539980862</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8489040595723916</v>
+        <v>0.7814778854788058</v>
       </c>
       <c r="G11" t="n">
-        <v>0.411049789542293</v>
+        <v>0.3358942459611755</v>
       </c>
       <c r="H11" t="n">
-        <v>1.899714326724192</v>
+        <v>2.183674651578466</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4092346642746991</v>
+        <v>0.8015215935496449</v>
       </c>
       <c r="J11" t="n">
-        <v>1.082476897850898</v>
+        <v>1.105031457402144</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7458557810627988</v>
+        <v>0.9532765254758944</v>
       </c>
       <c r="L11" t="n">
-        <v>1.689697413266915</v>
+        <v>0.4677617701408982</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6411316475906434</v>
+        <v>0.5795638411436443</v>
       </c>
       <c r="N11" t="n">
-        <v>1.035982405453543</v>
+        <v>1.029403452465322</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6684259491540498</v>
+        <v>0.6042370737236729</v>
       </c>
       <c r="P11" t="n">
-        <v>131.7780818587688</v>
+        <v>132.1819178254489</v>
       </c>
       <c r="Q11" t="n">
-        <v>211.0050104752018</v>
+        <v>211.4088464418819</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_2</t>
+          <t>model_6_3_1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9363748947306756</v>
+        <v>0.9425083758051048</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7090679499363343</v>
+        <v>0.6733690213662323</v>
       </c>
       <c r="D12" t="n">
-        <v>0.817354492617515</v>
+        <v>0.8736219693284401</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8592559251640337</v>
+        <v>0.9049503972355544</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8650462476437304</v>
+        <v>0.907309720662461</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4254613719026439</v>
+        <v>0.384446755715852</v>
       </c>
       <c r="H12" t="n">
-        <v>1.945463958394645</v>
+        <v>2.184182858121368</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3205584990713037</v>
+        <v>0.3028314633122703</v>
       </c>
       <c r="J12" t="n">
-        <v>1.011787506866114</v>
+        <v>0.5058689982028903</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6661730029687087</v>
+        <v>0.4043502307575803</v>
       </c>
       <c r="L12" t="n">
-        <v>1.777064958835314</v>
+        <v>0.9249887939159608</v>
       </c>
       <c r="M12" t="n">
-        <v>0.652274000633663</v>
+        <v>0.620037705075951</v>
       </c>
       <c r="N12" t="n">
-        <v>1.037243964060092</v>
+        <v>1.033653633675061</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6800426552339613</v>
+        <v>0.6464339938360262</v>
       </c>
       <c r="P12" t="n">
-        <v>131.7091622358544</v>
+        <v>131.911899952614</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.9360908522875</v>
+        <v>211.1388285690471</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_3_1</t>
+          <t>model_6_3_12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9330605170853475</v>
+        <v>0.9488584401882926</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7014145909749934</v>
+        <v>0.6722485518249591</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8575823509178829</v>
+        <v>0.6521711141436053</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8727811872135065</v>
+        <v>0.784337912507446</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8820462438873096</v>
+        <v>0.7729143695545984</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4476246304782585</v>
+        <v>0.3419838459461178</v>
       </c>
       <c r="H13" t="n">
-        <v>1.99664200500961</v>
+        <v>2.19167544310315</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2499551644345842</v>
+        <v>0.8334797585184471</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9145564782441544</v>
+        <v>1.147787691659993</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5822558213393694</v>
+        <v>0.9906338369954762</v>
       </c>
       <c r="L13" t="n">
-        <v>1.872588978097413</v>
+        <v>0.442996536657234</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6690475547210815</v>
+        <v>0.5847938491007902</v>
       </c>
       <c r="N13" t="n">
-        <v>1.039184087559797</v>
+        <v>1.029936522816609</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6975302942449249</v>
+        <v>0.6096897339471634</v>
       </c>
       <c r="P13" t="n">
-        <v>131.6076005523604</v>
+        <v>132.1459835542215</v>
       </c>
       <c r="Q13" t="n">
-        <v>210.8345291687934</v>
+        <v>211.3729121706546</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
+          <t>model_6_3_13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9479215709825178</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6710578729433974</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.63997315450586</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7768955949947396</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7650244072019401</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.3482486946390195</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.199637518266725</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.8627089366192078</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.187396880914478</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.025052851813073</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.4206714720296295</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.5901259989519353</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.030484934059014</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.6152488844565435</v>
+      </c>
+      <c r="P14" t="n">
+        <v>132.1096768293475</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>211.3366054457806</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>model_6_3_14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9469826219069284</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6698927674091439</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6288340474833078</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7700209372270789</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.7577714804556305</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.354527451430949</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.207428584339096</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.8894008549985829</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.223984895348718</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.05669287517365</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.4005449604156411</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.5954220783872135</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.031034562786188</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.6207704289577773</v>
+      </c>
+      <c r="P15" t="n">
+        <v>132.0739389979346</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>211.3008676143676</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
           <t>model_6_3_0</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0.9283643991031744</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.6928310351011584</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.8873324338290994</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.8905923932263563</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.9003044203854774</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.4790275930486855</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.054040282661584</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.1977412224551882</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.7865144576687009</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.4921278771055012</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.97765453820574</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.6921181929762326</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1.041933034671312</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.7215830973334026</v>
-      </c>
-      <c r="P14" t="n">
-        <v>131.4719941554015</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>210.6989227718345</v>
+      <c r="B16" t="n">
+        <v>0.9367748318073117</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.6694537713969169</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.900891170639343</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9184506954930294</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9230344089572201</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.4227869908296372</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.210364152694249</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.237488048064734</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.4340182786173081</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.3357531633410211</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.003173155089886</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.6502207247001877</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.037009854551818</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.6779019670931308</v>
+      </c>
+      <c r="P16" t="n">
+        <v>131.7217735890947</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>210.9487022055277</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>model_6_3_15</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9460595474218316</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6687675912057187</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6186796091194855</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7636864791610489</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7511185584709618</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.3607000547631581</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.214952642792361</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9137332758512414</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.25769788165085</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.08571544969753</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.38240305523794</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.6005830956355316</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.031574899070147</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.6261511613951348</v>
+      </c>
+      <c r="P17" t="n">
+        <v>132.039417078496</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>211.266345694929</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>model_6_3_16</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9451652232915096</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6676922520879929</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.6094320374363987</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7578648964479363</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.7450275032883226</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.3666804043406053</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.222143440424075</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9358926310017606</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.288681264320378</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.112286947661069</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.3660555722050883</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.6055414142241679</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.032098405878141</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.6313205658712239</v>
+      </c>
+      <c r="P18" t="n">
+        <v>132.0065292863643</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>211.2334579027974</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>model_6_3_17</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9443084771893167</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6666731372396808</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.6010221530405957</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7525244618025441</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.7394600498575512</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.372409469470923</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.22895826610733</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.9560446905356427</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.317103900980183</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.136574295757913</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.3513208143509775</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.6102536107807335</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.032599915791619</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.636233370390794</v>
+      </c>
+      <c r="P19" t="n">
+        <v>131.9755226113554</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>211.2024512277884</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>model_6_3_18</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9434953245671241</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6657140362542636</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5933824712159855</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.7476356025889379</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.7343795945839819</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.3778470247997479</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.235371778813068</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.9743511636931446</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.343123181869456</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.1587371727813</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.3380468129953615</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.6146926262773517</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.033075907570464</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.6408613639671321</v>
+      </c>
+      <c r="P20" t="n">
+        <v>131.9465317231423</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>211.1734603395754</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>model_6_3_19</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9427290989863324</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6648166510351996</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5864476060845888</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7431672423984037</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.7297492057642606</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.3829707787866463</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.241372597905028</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.990968730405131</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.366904500543632</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.178936688859286</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.3260882524206097</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.6188463288948608</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.033524429861659</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.6451918983044184</v>
+      </c>
+      <c r="P21" t="n">
+        <v>131.9195931766168</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>211.1465217930498</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>model_6_3_20</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9420116785496062</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6639811249980172</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5801584737845169</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.7390905393613585</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.7255351129006611</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3877681725504515</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.246959764362911</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.006038969490791</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.388601357987966</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.197320163739378</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.3153119619322884</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.6227103440207586</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.033944383288035</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.6492204125538397</v>
+      </c>
+      <c r="P22" t="n">
+        <v>131.8946952227117</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>211.1216238391448</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_6_3_21</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9413433316995629</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6632063389365278</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5744607001639448</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.7353751585147945</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.721703841501957</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.3922374110141461</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.252140762323652</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.019692174197107</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.408375201666739</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.214033625876217</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.3056058521530055</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.626288600418486</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.034335610712451</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.6529510027344302</v>
+      </c>
+      <c r="P23" t="n">
+        <v>131.8717759643511</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>211.0987045807842</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_6_3_22</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9407233562028777</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.6624905064578983</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5693003247321846</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7319939521261132</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.7182239853064303</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3963831900152044</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.256927537404353</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.032057646541758</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.426370516100596</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.229214081321177</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.2968662003355033</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.6295896997372212</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.034698523198315</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.6563926366853816</v>
+      </c>
+      <c r="P24" t="n">
+        <v>131.8507477680942</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>211.0776763845272</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_6_3_23</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9401503367708435</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.6618311539913471</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5646301965661196</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.7289195832005824</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.7150659757543956</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.4002149735957291</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.26133663038422</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.043248371218112</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.442732793093153</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.242990519370843</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.2889934498482272</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.6326254607552</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.035033949207311</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.6595576363347874</v>
+      </c>
+      <c r="P25" t="n">
+        <v>131.8315068845015</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>211.0584355009346</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_6_3_24</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9396224704384015</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.6612254491984717</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5604063213086695</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7261276004664924</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.7122027570685578</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.4037448181913695</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.265386981123192</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.053369769045448</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.457592166174322</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.255480967609885</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.2819027249813758</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.6354091738331841</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.035342944133619</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.6624598578415817</v>
+      </c>
+      <c r="P26" t="n">
+        <v>131.8139444774571</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>211.0408730938902</v>
       </c>
     </row>
   </sheetData>
